--- a/ISRaD_data_files/Horwath_Thesis_2007.xlsx
+++ b/ISRaD_data_files/Horwath_Thesis_2007.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E933342-D2F1-4DDA-B585-CD49ED480AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="10980" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26544" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="918">
   <si>
     <t>entry_name</t>
   </si>
@@ -2776,12 +2782,18 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Gelisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2881,6 +2893,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3162,16 +3182,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3221,7 +3241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3306,7 +3326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3359,14 +3379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3412,7 +3432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3429,7 +3449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3458,14 +3478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3506,76 +3528,79 @@
         <v>82</v>
       </c>
       <c r="N1" t="s">
+        <v>916</v>
+      </c>
+      <c r="O1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>92</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>104</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3615,77 +3640,77 @@
       <c r="M2" t="s">
         <v>114</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>115</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>118</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>119</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>120</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>121</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>122</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>123</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>124</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>126</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>127</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>130</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>131</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>133</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>134</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>135</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>136</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3713,29 +3738,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>143</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>145</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>142</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>146</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>147</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>148</v>
-      </c>
-      <c r="V3" t="s">
-        <v>149</v>
       </c>
       <c r="W3" t="s">
         <v>149</v>
@@ -3744,43 +3766,46 @@
         <v>149</v>
       </c>
       <c r="Y3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z3" t="s">
         <v>150</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>152</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>153</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>154</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>155</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>146</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>156</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>157</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>158</v>
       </c>
       <c r="AI3" t="s">
         <v>158</v>
       </c>
       <c r="AJ3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3800,18 +3825,21 @@
         <v>162</v>
       </c>
       <c r="N4" t="s">
+        <v>917</v>
+      </c>
+      <c r="O4" t="s">
         <v>163</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>164</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>165</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3827,14 +3855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +3975,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4057,7 +4085,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4149,14 +4177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT9"/>
   <sheetViews>
     <sheetView topLeftCell="AN1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +4480,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4748,7 +4776,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4987,7 +5015,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5037,7 +5065,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5078,7 +5106,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5119,7 +5147,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5160,7 +5188,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5201,7 +5229,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5254,14 +5282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5375,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5430,7 +5458,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5489,16 +5517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5719,7 +5747,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5937,7 +5965,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6116,14 +6144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6215,7 +6243,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6298,7 +6326,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6357,14 +6385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>670</v>
       </c>
@@ -6498,7 +6526,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -6632,7 +6660,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>716</v>
       </c>
@@ -6655,7 +6683,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>721</v>
       </c>
@@ -6789,7 +6817,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>754</v>
       </c>
@@ -6902,7 +6930,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>787</v>
       </c>
@@ -7003,7 +7031,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>814</v>
       </c>
@@ -7077,7 +7105,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>835</v>
       </c>
@@ -7145,7 +7173,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>852</v>
       </c>
@@ -7198,7 +7226,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>868</v>
       </c>
@@ -7230,7 +7258,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>878</v>
       </c>
@@ -7256,7 +7284,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>884</v>
       </c>
@@ -7273,7 +7301,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>889</v>
       </c>
@@ -7287,7 +7315,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>893</v>
       </c>
@@ -7298,7 +7326,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>896</v>
       </c>
@@ -7309,7 +7337,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>899</v>
       </c>
@@ -7320,7 +7348,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>902</v>
       </c>
@@ -7328,7 +7356,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>904</v>
       </c>
@@ -7336,7 +7364,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>906</v>
       </c>
@@ -7344,7 +7372,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>908</v>
       </c>
@@ -7352,7 +7380,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>910</v>
       </c>
